--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_route_distinguisher_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_route_distinguisher_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:3315d179-330e-48da-8469-75da53992f20"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:d3ac0de2-11e9-41b3-a901-c27618a0dfab"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -539,10 +539,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:88a79cff-c4ea-4b82-b7c4-0bb5fc362b53"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:0f1f8bbe-807f-4941-bbae-c61609afa1df"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:a50d8f06-790b-4d23-9ef2-7fc13d7012a3" nc-ext:flow-id="81"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:dafe524b-4826-4880-bac2-ad0d6f0bd0a6" nc-ext:flow-id="245"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -550,7 +550,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:2bf056d0-b4bd-4b5d-9288-56095b0594da"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:938e3aa1-eea7-46a9-be0a-07d64ea912a0"&gt;
   &lt;data&gt;
     &lt;network-instances&gt;
       &lt;network-instance&gt;
